--- a/Majority_Andy/Documentation_Andy/Testing/Testing.xlsx
+++ b/Majority_Andy/Documentation_Andy/Testing/Testing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Functionality</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>Create Accont</t>
+    <t>Create Account</t>
   </si>
   <si>
     <t>User should be able to create an account from login screen, signout and then log back in with their details.</t>
@@ -79,15 +79,16 @@
     <t>User should be able to view the initial budget loaded in the system.</t>
   </si>
   <si>
-    <t>Will need to manually add budet in the database</t>
+    <t>Will need to manually add budget in the database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -122,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -133,6 +134,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -237,6 +241,12 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="4">
+        <v>42951.0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
